--- a/Python/OUTHLHD.xlsx
+++ b/Python/OUTHLHD.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="503">
   <si>
     <t>//*[@id="inputEmail3"]</t>
   </si>
@@ -100,485 +94,1457 @@
     <t>*仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
   </si>
   <si>
+    <t>"=IF(B2=C2,"P","F")</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>"=IF(F2=G2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J2=K2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N2=O2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(R2=S2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V2=W2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(B3=C3,"P","F")</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>"=IF(F3=G3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J3=K3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N3=O3,"P","F")</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>"=IF(R3=S3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V3=W3,"P","F")</t>
+  </si>
+  <si>
     <t>d1</t>
   </si>
   <si>
+    <t>"=IF(B4=C4,"P","F")</t>
+  </si>
+  <si>
     <t>0.000</t>
   </si>
   <si>
     <t>*仅可以使用正整数与小数, 数字范围0-100000</t>
   </si>
   <si>
+    <t>"=IF(F4=G4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J4=K4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N4=O4,"P","F")</t>
+  </si>
+  <si>
     <t>*仅可以使用数字, 数字范围0-100000000</t>
   </si>
   <si>
+    <t>"=IF(R4=S4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V4=W4,"P","F")</t>
+  </si>
+  <si>
     <t>1dd</t>
   </si>
   <si>
+    <t>"=IF(B5=C5,"P","F")</t>
+  </si>
+  <si>
     <t>100000</t>
   </si>
   <si>
+    <t>"=IF(F5=G5,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J5=K5,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N5=O5,"P","F")</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
+    <t>"=IF(R5=S5,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V5=W5,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv1</t>
   </si>
   <si>
+    <t>"=IF(B6=C6,"P","F")</t>
+  </si>
+  <si>
     <t>100000.0</t>
   </si>
   <si>
+    <t>"=IF(F6=G6,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J6=K6,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N6=O6,"P","F")</t>
+  </si>
+  <si>
     <t>50.56</t>
   </si>
   <si>
+    <t>"=IF(R6=S6,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V6=W6,"P","F")</t>
+  </si>
+  <si>
     <t>1abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
   </si>
   <si>
+    <t>"=IF(B7=C7,"P","F")</t>
+  </si>
+  <si>
     <t>100000.000</t>
   </si>
   <si>
+    <t>"=IF(F7=G7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J7=K7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N7=O7,"P","F")</t>
+  </si>
+  <si>
     <t>100000000</t>
   </si>
   <si>
+    <t>"=IF(R7=S7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V7=W7,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
   </si>
   <si>
+    <t>"=IF(B8=C8,"P","F")</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
+    <t>"=IF(F8=G8,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J8=K8,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N8=O8,"P","F")</t>
+  </si>
+  <si>
     <t>100000000.0</t>
   </si>
   <si>
+    <t>"=IF(R8=S8,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V8=W8,"P","F")</t>
+  </si>
+  <si>
     <t>123456789012345678901234567890123456789012345678901</t>
   </si>
   <si>
+    <t>"=IF(B9=C9,"P","F")</t>
+  </si>
+  <si>
     <t>0.01</t>
   </si>
   <si>
+    <t>"=IF(F9=G9,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J9=K9,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N9=O9,"P","F")</t>
+  </si>
+  <si>
     <t>1000000000</t>
   </si>
   <si>
+    <t>"=IF(R9=S9,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V9=W9,"P","F")</t>
+  </si>
+  <si>
     <t>_-</t>
   </si>
   <si>
+    <t>"=IF(B10=C10,"P","F")</t>
+  </si>
+  <si>
     <t>5.</t>
   </si>
   <si>
+    <t>"=IF(F10=G10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J10=K10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N10=O10,"P","F")</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
+    <t>"=IF(R10=S10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V10=W10,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">    dd22</t>
   </si>
   <si>
+    <t>"=IF(B11=C11,"P","F")</t>
+  </si>
+  <si>
     <t>.5</t>
   </si>
   <si>
+    <t>"=IF(F11=G11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J11=K11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N11=O11,"P","F")</t>
+  </si>
+  <si>
     <t>@</t>
   </si>
   <si>
+    <t>"=IF(R11=S11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V11=W11,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfad222    </t>
   </si>
   <si>
+    <t>"=IF(B12=C12,"P","F")</t>
+  </si>
+  <si>
     <t>5.5.5.</t>
   </si>
   <si>
+    <t>"=IF(F12=G12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J12=K12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N12=O12,"P","F")</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
+    <t>"=IF(R12=S12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V12=W12,"P","F")</t>
+  </si>
+  <si>
     <t>dfadsf 213dfa</t>
   </si>
   <si>
+    <t>"=IF(B13=C13,"P","F")</t>
+  </si>
+  <si>
     <t>.5.5</t>
   </si>
   <si>
+    <t>"=IF(F13=G13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J13=K13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N13=O13,"P","F")</t>
+  </si>
+  <si>
     <t>$</t>
   </si>
   <si>
+    <t>"=IF(R13=S13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V13=W13,"P","F")</t>
+  </si>
+  <si>
     <t>!!!!!</t>
   </si>
   <si>
+    <t>"=IF(B14=C14,"P","F")</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>"=IF(F14=G14,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J14=K14,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N14=O14,"P","F")</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
+    <t>"=IF(R14=S14,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V14=W14,"P","F")</t>
+  </si>
+  <si>
     <t>@@@@@</t>
   </si>
   <si>
+    <t>"=IF(B15=C15,"P","F")</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
+    <t>"=IF(F15=G15,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J15=K15,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N15=O15,"P","F")</t>
+  </si>
+  <si>
     <t>^</t>
   </si>
   <si>
+    <t>"=IF(R15=S15,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V15=W15,"P","F")</t>
+  </si>
+  <si>
     <t>#####</t>
   </si>
   <si>
+    <t>"=IF(B16=C16,"P","F")</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
+    <t>"=IF(F16=G16,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J16=K16,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N16=O16,"P","F")</t>
+  </si>
+  <si>
     <t>&amp;</t>
   </si>
   <si>
+    <t>"=IF(R16=S16,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V16=W16,"P","F")</t>
+  </si>
+  <si>
     <t>$$$$$</t>
   </si>
   <si>
+    <t>"=IF(B17=C17,"P","F")</t>
+  </si>
+  <si>
     <t>99999.99</t>
   </si>
   <si>
+    <t>"=IF(F17=G17,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J17=K17,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N17=O17,"P","F")</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
+    <t>"=IF(R17=S17,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V17=W17,"P","F")</t>
+  </si>
+  <si>
     <t>%%%%%%</t>
   </si>
   <si>
+    <t>"=IF(B18=C18,"P","F")</t>
+  </si>
+  <si>
     <t>100000.00</t>
   </si>
   <si>
+    <t>"=IF(F18=G18,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J18=K18,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N18=O18,"P","F")</t>
+  </si>
+  <si>
     <t>(</t>
   </si>
   <si>
+    <t>"=IF(R18=S18,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V18=W18,"P","F")</t>
+  </si>
+  <si>
     <t>^^^^^^</t>
   </si>
   <si>
+    <t>"=IF(B19=C19,"P","F")</t>
+  </si>
+  <si>
     <t>100000.01</t>
   </si>
   <si>
+    <t>"=IF(F19=G19,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J19=K19,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N19=O19,"P","F")</t>
+  </si>
+  <si>
     <t>)</t>
   </si>
   <si>
+    <t>"=IF(R19=S19,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V19=W19,"P","F")</t>
+  </si>
+  <si>
     <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
   </si>
   <si>
+    <t>"=IF(B20=C20,"P","F")</t>
+  </si>
+  <si>
     <t>50000.00</t>
   </si>
   <si>
+    <t>"=IF(F20=G20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J20=K20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N20=O20,"P","F")</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
+    <t>"=IF(R20=S20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V20=W20,"P","F")</t>
+  </si>
+  <si>
     <t>*******</t>
   </si>
   <si>
+    <t>"=IF(B21=C21,"P","F")</t>
+  </si>
+  <si>
     <t>55!55</t>
   </si>
   <si>
+    <t>"=IF(F21=G21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J21=K21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N21=O21,"P","F")</t>
+  </si>
+  <si>
     <t>`</t>
   </si>
   <si>
+    <t>"=IF(R21=S21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V21=W21,"P","F")</t>
+  </si>
+  <si>
     <t>((((((</t>
   </si>
   <si>
+    <t>"=IF(B22=C22,"P","F")</t>
+  </si>
+  <si>
     <t>55@55</t>
   </si>
   <si>
+    <t>"=IF(F22=G22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J22=K22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N22=O22,"P","F")</t>
+  </si>
+  <si>
     <t>=</t>
   </si>
   <si>
+    <t>"=IF(R22=S22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V22=W22,"P","F")</t>
+  </si>
+  <si>
     <t>))))))</t>
   </si>
   <si>
+    <t>"=IF(B23=C23,"P","F")</t>
+  </si>
+  <si>
     <t>55#55</t>
   </si>
   <si>
+    <t>"=IF(F23=G23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J23=K23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N23=O23,"P","F")</t>
+  </si>
+  <si>
     <t>{</t>
   </si>
   <si>
+    <t>"=IF(R23=S23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V23=W23,"P","F")</t>
+  </si>
+  <si>
     <t>++++++</t>
   </si>
   <si>
+    <t>"=IF(B24=C24,"P","F")</t>
+  </si>
+  <si>
     <t>55$55</t>
   </si>
   <si>
+    <t>"=IF(F24=G24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J24=K24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N24=O24,"P","F")</t>
+  </si>
+  <si>
     <t>}</t>
   </si>
   <si>
+    <t>"=IF(R24=S24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V24=W24,"P","F")</t>
+  </si>
+  <si>
     <t>``````</t>
   </si>
   <si>
+    <t>"=IF(B25=C25,"P","F")</t>
+  </si>
+  <si>
     <t>55%55</t>
   </si>
   <si>
+    <t>"=IF(F25=G25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J25=K25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N25=O25,"P","F")</t>
+  </si>
+  <si>
     <t>|</t>
   </si>
   <si>
+    <t>"=IF(R25=S25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V25=W25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(B26=C26,"P","F")</t>
+  </si>
+  <si>
     <t>55^55</t>
   </si>
   <si>
+    <t>"=IF(F26=G26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J26=K26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N26=O26,"P","F")</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
+    <t>"=IF(R26=S26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V26=W26,"P","F")</t>
+  </si>
+  <si>
     <t>{{{{{{{</t>
   </si>
   <si>
+    <t>"=IF(B27=C27,"P","F")</t>
+  </si>
+  <si>
     <t>55&amp;55</t>
   </si>
   <si>
+    <t>"=IF(F27=G27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J27=K27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N27=O27,"P","F")</t>
+  </si>
+  <si>
     <t>"</t>
   </si>
   <si>
+    <t>"=IF(R27=S27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V27=W27,"P","F")</t>
+  </si>
+  <si>
     <t>}}}}}}</t>
   </si>
   <si>
+    <t>"=IF(B28=C28,"P","F")</t>
+  </si>
+  <si>
     <t>55*55</t>
   </si>
   <si>
+    <t>"=IF(F28=G28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J28=K28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N28=O28,"P","F")</t>
+  </si>
+  <si>
     <t>&lt;</t>
   </si>
   <si>
+    <t>"=IF(R28=S28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V28=W28,"P","F")</t>
+  </si>
+  <si>
     <t>|||||||</t>
   </si>
   <si>
+    <t>"=IF(B29=C29,"P","F")</t>
+  </si>
+  <si>
     <t>55(55</t>
   </si>
   <si>
+    <t>"=IF(F29=G29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J29=K29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N29=O29,"P","F")</t>
+  </si>
+  <si>
     <t>&gt;</t>
   </si>
   <si>
+    <t>"=IF(R29=S29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V29=W29,"P","F")</t>
+  </si>
+  <si>
     <t>:::::::</t>
   </si>
   <si>
+    <t>"=IF(B30=C30,"P","F")</t>
+  </si>
+  <si>
     <t>55)55</t>
   </si>
   <si>
+    <t>"=IF(F30=G30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J30=K30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N30=O30,"P","F")</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
+    <t>"=IF(R30=S30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V30=W30,"P","F")</t>
+  </si>
+  <si>
     <t>""""""</t>
   </si>
   <si>
+    <t>"=IF(B31=C31,"P","F")</t>
+  </si>
+  <si>
     <t>55+55</t>
   </si>
   <si>
+    <t>"=IF(F31=G31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J31=K31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N31=O31,"P","F")</t>
+  </si>
+  <si>
     <t>[</t>
   </si>
   <si>
+    <t>"=IF(R31=S31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V31=W31,"P","F")</t>
+  </si>
+  <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
   </si>
   <si>
+    <t>"=IF(B32=C32,"P","F")</t>
+  </si>
+  <si>
     <t>55`55</t>
   </si>
   <si>
+    <t>"=IF(F32=G32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J32=K32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N32=O32,"P","F")</t>
+  </si>
+  <si>
     <t>]</t>
   </si>
   <si>
+    <t>"=IF(R32=S32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V32=W32,"P","F")</t>
+  </si>
+  <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>"=IF(B33=C33,"P","F")</t>
+  </si>
+  <si>
     <t>55=55</t>
   </si>
   <si>
+    <t>"=IF(F33=G33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J33=K33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N33=O33,"P","F")</t>
+  </si>
+  <si>
     <t>\</t>
   </si>
   <si>
+    <t>"=IF(R33=S33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V33=W33,"P","F")</t>
+  </si>
+  <si>
     <t>??????</t>
   </si>
   <si>
+    <t>"=IF(B34=C34,"P","F")</t>
+  </si>
+  <si>
     <t>55{55</t>
   </si>
   <si>
+    <t>"=IF(F34=G34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J34=K34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N34=O34,"P","F")</t>
+  </si>
+  <si>
     <t>;</t>
   </si>
   <si>
+    <t>"=IF(R34=S34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V34=W34,"P","F")</t>
+  </si>
+  <si>
     <t>[[[[[[</t>
   </si>
   <si>
+    <t>"=IF(B35=C35,"P","F")</t>
+  </si>
+  <si>
     <t>55}55</t>
   </si>
   <si>
+    <t>"=IF(F35=G35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J35=K35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N35=O35,"P","F")</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
+    <t>"=IF(R35=S35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V35=W35,"P","F")</t>
+  </si>
+  <si>
     <t>]]]]]]</t>
   </si>
   <si>
+    <t>"=IF(B36=C36,"P","F")</t>
+  </si>
+  <si>
     <t>55|55</t>
   </si>
   <si>
+    <t>"=IF(F36=G36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J36=K36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N36=O36,"P","F")</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>"=IF(R36=S36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V36=W36,"P","F")</t>
+  </si>
+  <si>
     <t>\\\\\\</t>
   </si>
   <si>
+    <t>"=IF(B37=C37,"P","F")</t>
+  </si>
+  <si>
     <t>55:55</t>
   </si>
   <si>
+    <t>"=IF(F37=G37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J37=K37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N37=O37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(R37=S37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V37=W37,"P","F")</t>
+  </si>
+  <si>
     <t>;;;;;;</t>
   </si>
   <si>
+    <t>"=IF(B38=C38,"P","F")</t>
+  </si>
+  <si>
     <t>55"55</t>
   </si>
   <si>
+    <t>"=IF(F38=G38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J38=K38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N38=O38,"P","F")</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
+    <t>"=IF(R38=S38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V38=W38,"P","F")</t>
+  </si>
+  <si>
     <t>''''''</t>
   </si>
   <si>
+    <t>"=IF(B39=C39,"P","F")</t>
+  </si>
+  <si>
     <t>55&lt;55</t>
   </si>
   <si>
+    <t>"=IF(F39=G39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J39=K39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N39=O39,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">   16415</t>
   </si>
   <si>
+    <t>"=IF(R39=S39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V39=W39,"P","F")</t>
+  </si>
+  <si>
     <t>,,,,,,,</t>
   </si>
   <si>
+    <t>"=IF(B40=C40,"P","F")</t>
+  </si>
+  <si>
     <t>55&gt;55</t>
   </si>
   <si>
+    <t>"=IF(F40=G40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J40=K40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N40=O40,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">561545  </t>
   </si>
   <si>
+    <t>"=IF(R40=S40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V40=W40,"P","F")</t>
+  </si>
+  <si>
     <t>.......</t>
   </si>
   <si>
+    <t>"=IF(B41=C41,"P","F")</t>
+  </si>
+  <si>
     <t>55?55</t>
   </si>
   <si>
+    <t>"=IF(F41=G41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J41=K41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N41=O41,"P","F")</t>
+  </si>
+  <si>
     <t>1315 51615</t>
   </si>
   <si>
+    <t>"=IF(R41=S41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V41=W41,"P","F")</t>
+  </si>
+  <si>
     <t>//////</t>
   </si>
   <si>
+    <t>"=IF(B42=C42,"P","F")</t>
+  </si>
+  <si>
     <t>55[55</t>
   </si>
   <si>
+    <t>"=IF(F42=G42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J42=K42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N42=O42,"P","F")</t>
+  </si>
+  <si>
     <t>你的发掘</t>
   </si>
   <si>
+    <t>"=IF(R42=S42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V42=W42,"P","F")</t>
+  </si>
+  <si>
     <t>你好！@#</t>
   </si>
   <si>
+    <t>"=IF(B43=C43,"P","F")</t>
+  </si>
+  <si>
     <t>55]55</t>
   </si>
   <si>
+    <t>"=IF(F43=G43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J43=K43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N43=O43,"P","F")</t>
+  </si>
+  <si>
     <t>dfiandfa</t>
   </si>
   <si>
+    <t>"=IF(R43=S43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V43=W43,"P","F")</t>
+  </si>
+  <si>
     <t>你好dad341#@4</t>
   </si>
   <si>
+    <t>"=IF(B44=C44,"P","F")</t>
+  </si>
+  <si>
     <t>55\55</t>
   </si>
   <si>
+    <t>"=IF(F44=G44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J44=K44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N44=O44,"P","F")</t>
+  </si>
+  <si>
     <t>中文dfadfja</t>
   </si>
   <si>
+    <t>"=IF(R44=S44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V44=W44,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
+    <t>"=IF(B45=C45,"P","F")</t>
+  </si>
+  <si>
     <t>55;55</t>
   </si>
   <si>
+    <t>"=IF(F45=G45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J45=K45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N45=O45,"P","F")</t>
+  </si>
+  <si>
     <t>中文123123</t>
   </si>
   <si>
+    <t>"=IF(R45=S45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V45=W45,"P","F")</t>
+  </si>
+  <si>
     <t>55'55</t>
   </si>
   <si>
+    <t>"=IF(F46=G46,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J46=K46,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N46=O46,"P","F")</t>
+  </si>
+  <si>
     <t>dfada231312</t>
   </si>
   <si>
+    <t>"=IF(R46=S46,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V46=W46,"P","F")</t>
+  </si>
+  <si>
     <t>55,55</t>
   </si>
   <si>
+    <t>"=IF(F47=G47,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J47=K47,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N47=O47,"P","F")</t>
+  </si>
+  <si>
     <t>你的$#!@#$</t>
   </si>
   <si>
+    <t>"=IF(R47=S47,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V47=W47,"P","F")</t>
+  </si>
+  <si>
     <t>55.55</t>
   </si>
   <si>
+    <t>"=IF(F48=G48,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J48=K48,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N48=O48,"P","F")</t>
+  </si>
+  <si>
     <t>dfadfad#@!$@#</t>
   </si>
   <si>
+    <t>"=IF(R48=S48,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V48=W48,"P","F")</t>
+  </si>
+  <si>
     <t>55/55</t>
   </si>
   <si>
+    <t>"=IF(F49=G49,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J49=K49,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N49=O49,"P","F")</t>
+  </si>
+  <si>
     <t>3413#$!#</t>
   </si>
   <si>
+    <t>"=IF(R49=S49,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V49=W49,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">    1515</t>
   </si>
   <si>
+    <t>"=IF(F50=G50,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J50=K50,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N50=O50,"P","F")</t>
+  </si>
+  <si>
     <t>你好dfada43123443#!$@#$</t>
   </si>
   <si>
+    <t>"=IF(R50=S50,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V50=W50,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">1515   </t>
   </si>
   <si>
+    <t>"=IF(F51=G51,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J51=K51,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N51=O51,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
+    <t>"=IF(R51=S51,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(V62=W62,"P","F")</t>
+  </si>
+  <si>
     <t>15  55</t>
   </si>
   <si>
+    <t>"=IF(F52=G52,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J52=K52,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N52=O52,"P","F")</t>
+  </si>
+  <si>
     <t>你好</t>
   </si>
   <si>
+    <t>"=IF(F53=G53,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J53=K53,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N53=O53,"P","F")</t>
+  </si>
+  <si>
     <t>nihadfa</t>
   </si>
   <si>
+    <t>"=IF(F54=G54,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J54=K54,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N54=O54,"P","F")</t>
+  </si>
+  <si>
     <t>你好dfadf</t>
   </si>
   <si>
+    <t>"=IF(F55=G55,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J55=K55,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N55=O55,"P","F")</t>
+  </si>
+  <si>
     <t>231你好</t>
   </si>
   <si>
+    <t>"=IF(F56=G56,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J56=K56,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N56=O56,"P","F")</t>
+  </si>
+  <si>
     <t>123213nihao</t>
   </si>
   <si>
+    <t>"=IF(F57=G57,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J57=K57,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N57=O57,"P","F")</t>
+  </si>
+  <si>
     <t>中文#!@$#</t>
   </si>
   <si>
+    <t>"=IF(F58=G58,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J58=K58,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N58=O58,"P","F")</t>
+  </si>
+  <si>
     <t>dfadf#$!#$</t>
   </si>
   <si>
+    <t>"=IF(F59=G59,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J59=K59,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N59=O59,"P","F")</t>
+  </si>
+  <si>
     <t>1234143@#$!</t>
   </si>
   <si>
+    <t>"=IF(F60=G60,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J60=K60,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N60=O60,"P","F")</t>
+  </si>
+  <si>
     <t>中文#!@$#dfad3214</t>
+  </si>
+  <si>
+    <t>"=IF(F61=G61,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J61=K61,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N61=O61,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F62=G62,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J62=K62,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N62=O62,"P","F")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -593,58 +1559,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -932,16 +1866,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1025,48 +1963,52 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(B2=C2,"P","F")</f>
-        <v>P</v>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H62" si="0">IF(F2=G2,"P","F")</f>
-        <v>P</v>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L62" si="1">IF(J2=K2,"P","F")</f>
-        <v>P</v>
+        <v>27</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P62" si="2">IF(N2=O2,"P","F")</f>
-        <v>P</v>
+        <v>27</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s">
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:T51" si="3">IF(R2=S2,"P","F")</f>
-        <v>P</v>
+        <v>27</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s">
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" ref="X2:X51" si="4">IF(V2=W2,"P","F")</f>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s"/>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1075,285 +2017,293 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D45" si="5">IF(B3=C3,"P","F")</f>
-        <v>P</v>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>34</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>34</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>34</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>38</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s">
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>41</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>51</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>53</v>
+      </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>53</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>53</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s">
+        <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>57</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s">
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="V5" t="s"/>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>60</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>62</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>62</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>62</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s">
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>69</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>75</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s">
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1361,61 +2311,61 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>80</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>80</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>80</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s">
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1423,247 +2373,247 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D9" t="s">
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>89</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>89</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>89</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s">
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>96</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s">
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>98</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>98</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>98</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s">
+        <v>101</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>103</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>105</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s">
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>107</v>
+      </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>107</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>109</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>107</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s">
+        <v>110</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <v>114</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s">
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>121</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1671,79 +2621,73 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D13" t="s">
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>128</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
+        <v>130</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1751,79 +2695,73 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D14" t="s">
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>139</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1831,79 +2769,73 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D15" t="s">
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>146</v>
       </c>
       <c r="Q15" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>148</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1911,61 +2843,61 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D16" t="s">
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>152</v>
+      </c>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>152</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>154</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>152</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s">
+        <v>155</v>
       </c>
       <c r="Q16" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T16" t="s">
+        <v>157</v>
       </c>
       <c r="U16" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1973,61 +2905,61 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D17" t="s">
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>161</v>
+      </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>161</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>163</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>161</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s">
+        <v>164</v>
       </c>
       <c r="Q17" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
+        <v>166</v>
       </c>
       <c r="U17" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -2035,61 +2967,61 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D18" t="s">
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>170</v>
+      </c>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>170</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>170</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s">
+        <v>173</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T18" t="s">
+        <v>175</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W18" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -2097,79 +3029,73 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D19" t="s">
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>182</v>
       </c>
       <c r="Q19" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T19" t="s">
+        <v>184</v>
       </c>
       <c r="U19" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W19" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -2177,61 +3103,61 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D20" t="s">
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>188</v>
+      </c>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>188</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>190</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>188</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s">
+        <v>191</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T20" t="s">
+        <v>193</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2239,79 +3165,73 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D21" t="s">
+        <v>196</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>198</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>200</v>
       </c>
       <c r="Q21" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="R21" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T21" t="s">
+        <v>202</v>
       </c>
       <c r="U21" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -2319,79 +3239,73 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D22" t="s">
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>207</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>209</v>
       </c>
       <c r="Q22" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="R22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T22" t="s">
+        <v>211</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2399,79 +3313,73 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D23" t="s">
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>216</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>218</v>
       </c>
       <c r="Q23" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="R23" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T23" t="s">
+        <v>220</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W23" t="s">
-        <v>32</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2479,79 +3387,73 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D24" t="s">
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>225</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>227</v>
       </c>
       <c r="Q24" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T24" t="s">
+        <v>229</v>
       </c>
       <c r="U24" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W24" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2559,156 +3461,148 @@
       <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D25" t="s">
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P25" t="s">
+        <v>236</v>
       </c>
       <c r="Q25" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="R25" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T25" t="s">
+        <v>238</v>
       </c>
       <c r="U25" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W25" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <f>=====</f>
+        <v/>
+      </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D26" t="s">
+        <v>240</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
       </c>
       <c r="M26" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>244</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="R26" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T26" t="s">
+        <v>246</v>
       </c>
       <c r="U26" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W26" t="s">
-        <v>32</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -2716,79 +3610,73 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D27" t="s">
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>253</v>
       </c>
       <c r="Q27" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="R27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T27" t="s">
+        <v>255</v>
       </c>
       <c r="U27" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2796,79 +3684,73 @@
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D28" t="s">
+        <v>258</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>260</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P28" t="s">
+        <v>262</v>
       </c>
       <c r="Q28" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="R28" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T28" t="s">
+        <v>264</v>
       </c>
       <c r="U28" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2876,79 +3758,73 @@
       <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D29" t="s">
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>269</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P29" t="s">
+        <v>271</v>
       </c>
       <c r="Q29" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="R29" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S29" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T29" t="s">
+        <v>273</v>
       </c>
       <c r="U29" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="V29" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W29" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -2956,79 +3832,73 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D30" t="s">
+        <v>276</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>278</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P30" t="s">
+        <v>280</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="R30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T30" t="s">
+        <v>282</v>
       </c>
       <c r="U30" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W30" t="s">
-        <v>32</v>
-      </c>
-      <c r="X30" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -3036,79 +3906,73 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D31" t="s">
+        <v>285</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>287</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>289</v>
       </c>
       <c r="Q31" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="R31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T31" t="s">
+        <v>291</v>
       </c>
       <c r="U31" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W31" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -3116,79 +3980,73 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D32" t="s">
+        <v>294</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P32" t="s">
+        <v>298</v>
       </c>
       <c r="Q32" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="R32" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T32" t="s">
+        <v>300</v>
       </c>
       <c r="U32" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="V32" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W32" t="s">
-        <v>32</v>
-      </c>
-      <c r="X32" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -3196,79 +4054,73 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D33" t="s">
+        <v>303</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>307</v>
       </c>
       <c r="Q33" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="R33" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S33" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T33" t="s">
+        <v>309</v>
       </c>
       <c r="U33" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -3276,79 +4128,73 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D34" t="s">
+        <v>312</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>314</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>316</v>
       </c>
       <c r="Q34" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="R34" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T34" t="s">
+        <v>318</v>
       </c>
       <c r="U34" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W34" t="s">
-        <v>32</v>
-      </c>
-      <c r="X34" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -3356,79 +4202,73 @@
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D35" t="s">
+        <v>321</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>323</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>325</v>
       </c>
       <c r="Q35" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="R35" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T35" t="s">
+        <v>327</v>
       </c>
       <c r="U35" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W35" t="s">
-        <v>32</v>
-      </c>
-      <c r="X35" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -3436,79 +4276,73 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D36" t="s">
+        <v>330</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>332</v>
       </c>
       <c r="I36" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="N36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O36" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>334</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>335</v>
       </c>
       <c r="R36" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T36" t="s">
+        <v>336</v>
       </c>
       <c r="U36" t="s">
-        <v>127</v>
+        <v>335</v>
       </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W36" t="s">
-        <v>32</v>
-      </c>
-      <c r="X36" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -3516,79 +4350,73 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D37" t="s">
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>341</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P37" t="s">
+        <v>343</v>
       </c>
       <c r="Q37" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="R37" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T37" t="s">
+        <v>344</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W37" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -3596,79 +4424,73 @@
       <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D38" t="s">
+        <v>347</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>349</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>351</v>
       </c>
       <c r="Q38" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="R38" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>353</v>
       </c>
       <c r="U38" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="V38" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W38" t="s">
-        <v>32</v>
-      </c>
-      <c r="X38" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -3676,67 +4498,65 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D39" t="s">
+        <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>358</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>360</v>
       </c>
       <c r="Q39" t="s">
-        <v>135</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>361</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s">
+        <v>362</v>
       </c>
       <c r="U39" t="s">
-        <v>135</v>
-      </c>
-      <c r="X39" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+      <c r="V39" t="s"/>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -3744,67 +4564,65 @@
       <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D40" t="s">
+        <v>365</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="N40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>369</v>
       </c>
       <c r="Q40" t="s">
-        <v>138</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>370</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s">
+        <v>371</v>
       </c>
       <c r="U40" t="s">
-        <v>138</v>
-      </c>
-      <c r="X40" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="V40" t="s"/>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -3812,79 +4630,73 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D41" t="s">
+        <v>374</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>376</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O41" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P41" t="s">
+        <v>378</v>
       </c>
       <c r="Q41" t="s">
-        <v>141</v>
+        <v>379</v>
       </c>
       <c r="R41" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T41" t="s">
+        <v>380</v>
       </c>
       <c r="U41" t="s">
-        <v>141</v>
+        <v>379</v>
       </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W41" t="s">
-        <v>32</v>
-      </c>
-      <c r="X41" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -3892,79 +4704,73 @@
       <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D42" t="s">
+        <v>383</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>385</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>386</v>
       </c>
       <c r="M42" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>387</v>
       </c>
       <c r="Q42" t="s">
-        <v>144</v>
+        <v>388</v>
       </c>
       <c r="R42" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S42" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T42" t="s">
+        <v>389</v>
       </c>
       <c r="U42" t="s">
-        <v>144</v>
+        <v>388</v>
       </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X42" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -3972,79 +4778,73 @@
       <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D43" t="s">
+        <v>392</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>394</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>395</v>
       </c>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>396</v>
       </c>
       <c r="Q43" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="R43" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T43" t="s">
+        <v>398</v>
       </c>
       <c r="U43" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W43" t="s">
-        <v>32</v>
-      </c>
-      <c r="X43" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X43" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -4052,79 +4852,73 @@
       <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D44" t="s">
+        <v>401</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>403</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>404</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="N44" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P44" t="s">
+        <v>405</v>
       </c>
       <c r="Q44" t="s">
-        <v>150</v>
+        <v>406</v>
       </c>
       <c r="R44" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T44" t="s">
+        <v>407</v>
       </c>
       <c r="U44" t="s">
-        <v>150</v>
+        <v>406</v>
       </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W44" t="s">
-        <v>32</v>
-      </c>
-      <c r="X44" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -4132,886 +4926,981 @@
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+      <c r="D45" t="s">
+        <v>410</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>412</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>413</v>
       </c>
       <c r="M45" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P45" t="s">
+        <v>414</v>
       </c>
       <c r="Q45" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="R45" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S45" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T45" t="s">
+        <v>416</v>
       </c>
       <c r="U45" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W45" t="s">
-        <v>32</v>
-      </c>
-      <c r="X45" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s"/>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H46" t="s">
+        <v>419</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L46" t="s">
+        <v>420</v>
       </c>
       <c r="M46" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>421</v>
       </c>
       <c r="Q46" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="R46" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S46" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T46" t="s">
+        <v>423</v>
       </c>
       <c r="U46" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W46" t="s">
-        <v>32</v>
-      </c>
-      <c r="X46" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" t="s"/>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="s"/>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>426</v>
       </c>
       <c r="I47" t="s">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>427</v>
       </c>
       <c r="M47" t="s">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P47" t="s">
+        <v>428</v>
       </c>
       <c r="Q47" t="s">
-        <v>157</v>
+        <v>429</v>
       </c>
       <c r="R47" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S47" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T47" t="s">
+        <v>430</v>
       </c>
       <c r="U47" t="s">
-        <v>157</v>
+        <v>429</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W47" t="s">
-        <v>32</v>
-      </c>
-      <c r="X47" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" t="s"/>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="s"/>
       <c r="E48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>432</v>
+      </c>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>433</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>432</v>
+      </c>
+      <c r="J48" t="s"/>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>434</v>
       </c>
       <c r="M48" t="s">
-        <v>158</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>432</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s">
+        <v>435</v>
       </c>
       <c r="Q48" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="R48" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S48" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T48" t="s">
+        <v>437</v>
       </c>
       <c r="U48" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="V48" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W48" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="49" spans="5:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" t="s"/>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>439</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>440</v>
       </c>
       <c r="I49" t="s">
-        <v>160</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
       </c>
       <c r="M49" t="s">
-        <v>160</v>
+        <v>439</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O49" t="s">
-        <v>31</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
+        <v>442</v>
       </c>
       <c r="Q49" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
       <c r="R49" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T49" t="s">
+        <v>444</v>
       </c>
       <c r="U49" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
       <c r="V49" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W49" t="s">
-        <v>32</v>
-      </c>
-      <c r="X49" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="50" spans="5:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s"/>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="s"/>
       <c r="E50" t="s">
-        <v>162</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>446</v>
+      </c>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>447</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>446</v>
+      </c>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>448</v>
       </c>
       <c r="M50" t="s">
-        <v>162</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>446</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s">
+        <v>449</v>
       </c>
       <c r="Q50" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="R50" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S50" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T50" t="s">
+        <v>451</v>
       </c>
       <c r="U50" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W50" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="51" spans="5:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s"/>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="s"/>
       <c r="E51" t="s">
-        <v>164</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>453</v>
+      </c>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>454</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>453</v>
+      </c>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>455</v>
       </c>
       <c r="M51" t="s">
-        <v>164</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>453</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s">
+        <v>456</v>
       </c>
       <c r="Q51" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
       <c r="R51" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S51" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>48</v>
+      </c>
+      <c r="T51" t="s">
+        <v>458</v>
       </c>
       <c r="U51" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
       <c r="V51" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W51" t="s">
-        <v>32</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="52" spans="5:24" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="X51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" t="s"/>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="s"/>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>461</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="J52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>462</v>
       </c>
       <c r="M52" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="53" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s"/>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s"/>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="s"/>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>465</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
       </c>
       <c r="M53" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="54" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s"/>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s"/>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="s"/>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H54" t="s">
+        <v>469</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>470</v>
       </c>
       <c r="M54" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="N54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O54" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="55" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P54" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s"/>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s"/>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>473</v>
       </c>
       <c r="I55" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>474</v>
       </c>
       <c r="M55" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="N55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O55" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="56" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s"/>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s"/>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="s"/>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H56" t="s">
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="J56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>478</v>
       </c>
       <c r="M56" t="s">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O56" t="s">
-        <v>31</v>
-      </c>
-      <c r="P56" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="57" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s"/>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s"/>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>481</v>
       </c>
       <c r="I57" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L57" t="s">
+        <v>482</v>
       </c>
       <c r="M57" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="N57" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>31</v>
-      </c>
-      <c r="P57" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="58" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s"/>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s"/>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="s"/>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>485</v>
       </c>
       <c r="I58" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L58" t="s">
+        <v>486</v>
       </c>
       <c r="M58" t="s">
-        <v>172</v>
+        <v>484</v>
       </c>
       <c r="N58" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O58" t="s">
-        <v>31</v>
-      </c>
-      <c r="P58" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="59" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s"/>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s"/>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s"/>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>489</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
       </c>
       <c r="M59" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="N59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O59" t="s">
-        <v>31</v>
-      </c>
-      <c r="P59" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="60" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s"/>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s"/>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>493</v>
       </c>
       <c r="I60" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>494</v>
       </c>
       <c r="M60" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="N60" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>31</v>
-      </c>
-      <c r="P60" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="61" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s"/>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="s"/>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H61" t="s">
+        <v>497</v>
       </c>
       <c r="I61" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
       <c r="J61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
       </c>
       <c r="M61" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
       <c r="N61" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P61" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="62" spans="5:24" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="P61" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s"/>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>500</v>
       </c>
       <c r="I62" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
       <c r="J62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>501</v>
       </c>
       <c r="M62" t="s">
-        <v>165</v>
+        <v>457</v>
       </c>
       <c r="N62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O62" t="s">
-        <v>31</v>
-      </c>
-      <c r="P62" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P62" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s"/>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>